--- a/swings/2021-11-22/BINANCE_SPOT_SUPER_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_SUPER_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>1.8246</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +721,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>1.8435</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +776,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -815,6 +829,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +882,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -919,6 +935,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -973,6 +990,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>1.7594</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1027,6 +1047,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>1.7947</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1081,6 +1104,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>1.7521</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1133,6 +1159,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1214,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>1.7973</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1239,6 +1269,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1293,6 +1324,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>1.7413</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1345,6 +1379,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1397,6 +1432,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1451,6 +1487,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>1.7782</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1503,6 +1542,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1555,6 +1595,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1607,6 +1648,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1661,6 +1703,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>1.7331</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1715,6 +1760,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>1.7677</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1769,6 +1817,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O25" t="n">
+        <v>1.7468</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1821,6 +1872,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1873,6 +1925,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1925,6 +1978,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1977,6 +2031,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2031,6 +2086,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>1.8047</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2083,6 +2141,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2137,6 +2196,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O32" t="n">
+        <v>1.6914</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2189,6 +2251,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2243,6 +2306,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>1.7383</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2297,6 +2363,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O35" t="n">
+        <v>1.7054</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2349,6 +2418,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2403,6 +2473,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2455,6 +2528,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2509,6 +2583,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>1.717</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2561,6 +2638,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2613,6 +2691,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2665,6 +2744,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2717,6 +2797,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2769,6 +2850,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2823,6 +2905,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>1.7951</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2875,6 +2960,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2927,6 +3013,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2979,6 +3066,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3031,6 +3119,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3085,6 +3174,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>1.7435</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3137,6 +3229,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3189,6 +3282,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3243,6 +3337,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>1.7939</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3297,6 +3394,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O54" t="n">
+        <v>1.7764</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3349,6 +3449,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3401,6 +3502,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3455,6 +3557,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>1.795</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3509,6 +3614,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O58" t="n">
+        <v>1.7829</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3563,6 +3671,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>1.8126</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3615,6 +3726,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3667,6 +3779,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3721,6 +3834,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>1.7533</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3773,6 +3889,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3827,6 +3944,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O64" t="n">
+        <v>1.7862</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3879,6 +3999,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3931,6 +4052,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3985,6 +4107,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>1.7612</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4039,6 +4164,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O68" t="n">
+        <v>1.8004</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4093,6 +4221,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>1.7662</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4147,6 +4278,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4199,6 +4333,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4251,6 +4386,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4305,6 +4441,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>1.761</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4357,6 +4496,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4409,6 +4549,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4461,6 +4602,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4515,6 +4657,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>1.7906</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4569,6 +4714,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O78" t="n">
+        <v>1.7715</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4623,6 +4771,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O79" t="n">
+        <v>1.7781</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4677,6 +4828,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O80" t="n">
+        <v>1.761</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4729,6 +4883,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4781,6 +4936,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4833,6 +4989,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4885,6 +5042,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4937,6 +5095,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4991,6 +5150,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>1.8764</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5043,6 +5205,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5095,6 +5258,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5149,6 +5313,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>1.8288</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5203,6 +5370,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>1.845</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5255,6 +5425,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5309,6 +5480,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>1.8003</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5361,6 +5535,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5415,6 +5590,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>1.8492</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5469,6 +5647,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>1.8321</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5521,6 +5702,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5573,6 +5755,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5625,6 +5808,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5677,6 +5861,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5729,6 +5914,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5781,6 +5967,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5833,6 +6020,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5885,6 +6073,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5937,6 +6126,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5989,6 +6179,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6043,6 +6234,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>1.9221</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6095,6 +6289,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6149,6 +6344,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>1.8616</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6203,6 +6401,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>1.8978</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6255,6 +6456,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6307,6 +6509,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6359,6 +6562,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6411,6 +6615,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6463,6 +6668,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6517,6 +6723,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>1.7973</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6571,6 +6780,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6623,6 +6835,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6675,6 +6888,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6729,6 +6943,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>1.7614</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6783,6 +7000,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>1.8049</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6837,6 +7057,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>1.7679</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6889,6 +7112,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6941,6 +7165,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6993,6 +7218,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7047,6 +7273,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>1.8078</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7101,6 +7330,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>1.7827</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7155,6 +7387,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>1.8106</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7209,6 +7444,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>1.7809</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7261,6 +7499,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7313,6 +7552,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7365,6 +7605,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7417,6 +7658,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7471,6 +7713,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O133" t="n">
+        <v>1.8519</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7525,6 +7770,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>1.8175</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7577,6 +7825,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7629,6 +7878,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7681,6 +7931,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7733,6 +7984,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7787,6 +8039,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O139" t="n">
+        <v>1.8596</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7839,6 +8094,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7891,6 +8147,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7943,6 +8200,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7997,6 +8255,9 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O143" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8049,6 +8310,7 @@
           <t>SUPERUSDT</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8102,6 +8364,9 @@
         <is>
           <t>SUPERUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>1.8223</v>
       </c>
     </row>
   </sheetData>
